--- a/2_Thermal_conductivity/init_params.xlsx
+++ b/2_Thermal_conductivity/init_params.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>fs</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>четные добавить</t>
-  </si>
-  <si>
-    <t>главное fs</t>
   </si>
 </sst>
 </file>
@@ -100,18 +94,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,10 +116,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,135 +400,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
